--- a/4_Transformer/1_Schematic/V2.0/Plasma_Gen_Transformer_Part List_V2.0.xlsx
+++ b/4_Transformer/1_Schematic/V2.0/Plasma_Gen_Transformer_Part List_V2.0.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\20171116_Plasma_Generator\4_Transformer\1_Schematic\V2.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Plasma_Gen_Transformer_SCH_V2.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -254,6 +259,22 @@
   </si>
   <si>
     <t>Type C</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>053261-0571</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch Header, Surface Mount, Right Angle, 5-Pin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>053048-0510</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch Header, Thru-Hole, Right Angle, 5-Pin</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1421,6 +1442,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1468,7 +1492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1503,7 +1527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1712,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R17"/>
+  <dimension ref="B1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2299,7 +2323,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f>SUM(J15:J16)</f>
         <v>280</v>
@@ -2307,6 +2331,28 @@
       <c r="L17" s="22">
         <f>SUM(L15:L16)</f>
         <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/4_Transformer/1_Schematic/V2.0/Plasma_Gen_Transformer_Part List_V2.0.xlsx
+++ b/4_Transformer/1_Schematic/V2.0/Plasma_Gen_Transformer_Part List_V2.0.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\20171116_Plasma_Generator\4_Transformer\1_Schematic\V2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12780"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="16155" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="Plasma_Gen_Transformer_SCH_V2.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Plasma_Transformer_V2.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Plasma_Transformer_V2.0!$B$5:$L$5</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>USEINPARTSLIST</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -54,13 +55,28 @@
     <t>P_size</t>
   </si>
   <si>
-    <t>MVG16VC220MF80</t>
-  </si>
-  <si>
-    <t>7.7mm</t>
-  </si>
-  <si>
-    <t>6.6x6.6</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>T491D227K016AT</t>
+  </si>
+  <si>
+    <t>220uF/16V</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>Tantal Capacitor 220uF/16V Case-D 7343 size</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>2.8mm</t>
+  </si>
+  <si>
+    <t>7.3x4.3</t>
   </si>
   <si>
     <t>C-1005</t>
@@ -78,6 +94,9 @@
     <t>CAP CER 0.1uF 16V 10% X7R 0402</t>
   </si>
   <si>
+    <t>C2,C3</t>
+  </si>
+  <si>
     <t>0.55mm</t>
   </si>
   <si>
@@ -99,182 +118,163 @@
     <t>RES SMD 100K OHM 1% 1/16W 0402</t>
   </si>
   <si>
+    <t>R1,R2</t>
+  </si>
+  <si>
     <t>0.40mm</t>
   </si>
   <si>
+    <t>NVMFS5C450NL</t>
+  </si>
+  <si>
     <t>NTD5802N</t>
   </si>
   <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>Power MOSFET 40V, Single N-Channel, 101A DPAK</t>
+  </si>
+  <si>
+    <t>Q1,Q2</t>
+  </si>
+  <si>
     <t>2.38mm</t>
   </si>
   <si>
     <t>6.73x6.22</t>
   </si>
   <si>
-    <t>53398-0471</t>
+    <t>053398-0571</t>
   </si>
   <si>
     <t>Molex</t>
   </si>
   <si>
-    <t>4.2mm</t>
-  </si>
-  <si>
-    <t>12512WS-04B</t>
-  </si>
-  <si>
-    <t>7.5x3.6</t>
+    <t>1.25mm Pitch SMD CON, Vertical 5-Pin</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>4.7mm</t>
+  </si>
+  <si>
+    <t>11.4x4.2</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>PAD_5X5</t>
   </si>
   <si>
-    <t>HOLE3.0</t>
-  </si>
-  <si>
-    <t>CTX2106XX-R</t>
-  </si>
-  <si>
-    <t>COOPER Bussmann</t>
+    <t>PCB Solder PAD 5x5</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>5.0x5.0</t>
+  </si>
+  <si>
+    <t>HOLE2.0</t>
+  </si>
+  <si>
+    <t>P2,P3,P4,P5</t>
+  </si>
+  <si>
+    <t>CTT_1139P1</t>
+  </si>
+  <si>
+    <t>CTT-1139P1</t>
+  </si>
+  <si>
+    <t>CT Electronics</t>
+  </si>
+  <si>
+    <t>Tack S/W</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>1.6mm</t>
+  </si>
+  <si>
+    <t>6.4x4.5</t>
+  </si>
+  <si>
+    <t>EFD1820G</t>
+  </si>
+  <si>
+    <t>CKT</t>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W</t>
   </si>
   <si>
-    <t>7.1mm</t>
-  </si>
-  <si>
-    <t>26x16.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Part Type Report1 for Plasma_Gen_Transformer_SCH_V1.0_20180203.sch on 2018-02-03 오후 10:52:04</t>
-  </si>
-  <si>
-    <t>5.0x5.0</t>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>8.2mm</t>
+  </si>
+  <si>
+    <t>26.5x17.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Part Type Report1 for Plasma_Gen_Transformer_SCH_V2.0_20180324.sch on 2018-04-02 오후 10:47:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design Part Type count: 9</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>필요수량</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>구매수량</t>
+  </si>
+  <si>
+    <t>구매금액</t>
+  </si>
+  <si>
+    <t>ICBanQ 3/14</t>
+  </si>
+  <si>
+    <t>Sample</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>PCB Solder PAD 5x5</t>
+    <t>재고</t>
     <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>MOQ</t>
-  </si>
-  <si>
-    <t>50058-8000</t>
-  </si>
-  <si>
-    <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
-  </si>
-  <si>
-    <t>1.25mm 4-Pin Housing, Female</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>51021-0400</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agency</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>디바이스마트</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICbanQ</t>
   </si>
   <si>
     <t>-</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>1.25mm 4-Pin SMD Straght 1A HEADER</t>
+    <t>NVMFS5C450NL</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>구매수량</t>
-  </si>
-  <si>
-    <t>2,2,2</t>
+    <t>P007567011</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>NVMFS5C450NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON Semiconductor </t>
-  </si>
-  <si>
-    <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-  </si>
-  <si>
-    <t>T491D227K016AT</t>
-  </si>
-  <si>
-    <t>220uF/16V</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>Tantal Capacitor 220uF/16V Case-D 7343 size</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <t>053398-0571</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>R5,R6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q5,Q6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>J3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTX210609-R</t>
-  </si>
-  <si>
-    <t>Type C</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>053261-0571</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25mm Pitch Header, Surface Mount, Right Angle, 5-Pin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>053048-0510</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25mm Pitch Header, Thru-Hole, Right Angle, 5-Pin</t>
+    <t>P005634282</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,24 +659,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -792,7 +798,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -813,7 +819,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -825,13 +831,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -843,7 +849,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -855,6 +861,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -882,7 +903,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -921,9 +942,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -936,9 +955,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -951,24 +968,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -976,29 +976,14 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,6 +1116,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,229 +1147,129 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="33" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="33" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="14" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="35" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="35" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="35" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="56">
     <cellStyle name="20% - 강조색1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -1409,16 +1298,16 @@
     <cellStyle name="계산" xfId="12" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="메모" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="메모 2" xfId="44"/>
+    <cellStyle name="메모 2" xfId="46"/>
     <cellStyle name="보통" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="17" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="49"/>
-    <cellStyle name="쉼표 [0] 2 2" xfId="51"/>
-    <cellStyle name="쉼표 [0] 3" xfId="50"/>
-    <cellStyle name="쉼표 [0] 4" xfId="45"/>
-    <cellStyle name="쉼표 [0] 5" xfId="47"/>
+    <cellStyle name="쉼표 [0] 2" xfId="51"/>
+    <cellStyle name="쉼표 [0] 2 2" xfId="53"/>
+    <cellStyle name="쉼표 [0] 3" xfId="52"/>
+    <cellStyle name="쉼표 [0] 4" xfId="47"/>
+    <cellStyle name="쉼표 [0] 5" xfId="49"/>
     <cellStyle name="연결된 셀" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="10" builtinId="20" customBuiltin="1"/>
@@ -1427,23 +1316,22 @@
     <cellStyle name="제목 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="제목 5" xfId="52"/>
-    <cellStyle name="제목 6" xfId="43"/>
+    <cellStyle name="제목 5" xfId="43"/>
+    <cellStyle name="제목 5 2" xfId="54"/>
+    <cellStyle name="제목 6" xfId="44"/>
     <cellStyle name="좋음" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="53"/>
-    <cellStyle name="표준 2" xfId="46"/>
-    <cellStyle name="표준 3" xfId="48"/>
+    <cellStyle name="표준 10" xfId="55"/>
+    <cellStyle name="표준 2" xfId="45"/>
+    <cellStyle name="표준 2 2" xfId="48"/>
+    <cellStyle name="표준 3" xfId="50"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1492,7 +1380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1527,7 +1415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1736,626 +1624,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="12"/>
-    <col min="12" max="12" width="9" style="17"/>
-    <col min="13" max="13" width="14.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.75" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="13">
+        <v>2280</v>
+      </c>
+      <c r="N6" s="3">
+        <f>H6*M6</f>
+        <v>2280</v>
+      </c>
+      <c r="O6" s="28">
+        <v>40</v>
+      </c>
+      <c r="P6" s="30">
+        <f>H6*$P$4</f>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="16">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" ref="N7:N14" si="0">H7*M7</f>
+        <v>20</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="31">
+        <f>H7*$P$4</f>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16">
+        <v>10</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="31">
+        <f>H8*$P$4</f>
+        <v>20</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="18">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="16">
+        <v>2</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1020</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="O9" s="16">
+        <v>4</v>
+      </c>
+      <c r="P9" s="31">
+        <f>H9*$P$4</f>
+        <v>20</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>1</v>
+      </c>
+      <c r="R9" s="16">
+        <v>20</v>
+      </c>
+      <c r="S9" s="14">
+        <f>M9*R9</f>
+        <v>20400</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="18">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="D10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="16">
+        <v>130</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="31">
+        <f>H10*$P$4</f>
+        <v>10</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>100</v>
+      </c>
+      <c r="R10" s="16">
+        <v>100</v>
+      </c>
+      <c r="S10" s="14">
+        <f>M10*R10</f>
+        <v>13000</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" spans="2:18" s="67" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="18">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="16">
+        <v>160</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="O11" s="20">
+        <v>50</v>
+      </c>
+      <c r="P11" s="20">
+        <f>H11*$P$4</f>
+        <v>10</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="21"/>
     </row>
-    <row r="4" spans="2:18" s="66" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="14">
+        <v>10000</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20">
+        <f>H12*$P$4</f>
+        <v>10</v>
+      </c>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="19">
+        <v>6</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="20">
         <v>0</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="21"/>
+    </row>
+    <row r="14" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="22">
+        <v>7</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
         <v>4</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="I14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="23"/>
     </row>
-    <row r="5" spans="2:18" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="52">
-        <v>1</v>
-      </c>
-      <c r="I5" s="53">
-        <v>2280</v>
-      </c>
-      <c r="J5" s="53">
-        <f>H5*I5</f>
-        <v>2280</v>
-      </c>
-      <c r="K5" s="54">
-        <v>5</v>
-      </c>
-      <c r="L5" s="53">
-        <f t="shared" ref="L5:L10" si="0">IF(H5&gt;K5,H5*I5,K5*I5)</f>
-        <v>11400</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="57">
-        <v>50</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>11</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N15" s="12">
+        <f>SUM(N6:N14)</f>
+        <v>14650</v>
+      </c>
+      <c r="S15" s="12">
+        <f>SUM(S6:S14)</f>
+        <v>33400</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
-        <v>2</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="34">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25">
-        <v>10</v>
-      </c>
-      <c r="J6" s="25">
-        <f>H6*I6</f>
-        <v>10</v>
-      </c>
-      <c r="K6" s="20">
-        <v>100</v>
-      </c>
-      <c r="L6" s="25">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="34">
-        <v>2</v>
-      </c>
-      <c r="I7" s="25">
-        <v>10</v>
-      </c>
-      <c r="J7" s="25">
-        <f t="shared" ref="J7:J10" si="1">H7*I7</f>
-        <v>20</v>
-      </c>
-      <c r="K7" s="20">
-        <v>100</v>
-      </c>
-      <c r="L7" s="25">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63">
-        <v>4</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="38" t="s">
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H8" s="48">
-        <v>2</v>
-      </c>
-      <c r="I8" s="71">
-        <v>960</v>
-      </c>
-      <c r="J8" s="50">
-        <f t="shared" si="1"/>
-        <v>1920</v>
-      </c>
-      <c r="K8" s="38">
-        <v>1</v>
-      </c>
-      <c r="L8" s="50">
-        <f t="shared" si="0"/>
-        <v>1920</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="60">
-        <v>10</v>
-      </c>
-      <c r="O8" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19">
-        <v>5</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="34">
-        <v>1</v>
-      </c>
-      <c r="I9" s="25">
-        <v>130</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="K9" s="20">
-        <v>100</v>
-      </c>
-      <c r="L9" s="25">
-        <f t="shared" si="0"/>
-        <v>13000</v>
-      </c>
-      <c r="M9" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="41">
-        <v>100</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
-        <v>6</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="34">
-        <v>1</v>
-      </c>
-      <c r="I10" s="73">
-        <v>11090</v>
-      </c>
-      <c r="J10" s="25">
-        <f t="shared" si="1"/>
-        <v>11090</v>
-      </c>
-      <c r="K10" s="20">
-        <v>1</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" si="0"/>
-        <v>11090</v>
-      </c>
-      <c r="M10" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" s="66" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J12" s="22">
-        <f>SUM(J5:J11)</f>
-        <v>15450</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:18" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="29">
-        <v>1</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="26">
-        <v>1</v>
-      </c>
-      <c r="I15" s="27">
-        <v>200</v>
-      </c>
-      <c r="J15" s="28">
-        <f t="shared" ref="J15:J16" si="2">H15*I15</f>
-        <v>200</v>
-      </c>
-      <c r="K15" s="27">
-        <v>10</v>
-      </c>
-      <c r="L15" s="28">
-        <f t="shared" ref="L15:L16" si="3">IF(H15&gt;K15,H15*I15,K15*I15)</f>
-        <v>2000</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="39">
-        <v>2</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="36">
-        <v>4</v>
-      </c>
-      <c r="I16" s="35">
-        <v>20</v>
-      </c>
-      <c r="J16" s="30">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="K16" s="35">
-        <v>100</v>
-      </c>
-      <c r="L16" s="30">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="M16" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="7">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J17" s="22">
-        <f>SUM(J15:J16)</f>
-        <v>280</v>
-      </c>
-      <c r="L17" s="22">
-        <f>SUM(L15:L16)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B5:L5"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/4_Transformer/1_Schematic/V2.0/Plasma_Gen_Transformer_Part List_V2.0.xlsx
+++ b/4_Transformer/1_Schematic/V2.0/Plasma_Gen_Transformer_Part List_V2.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="16155" windowHeight="9180"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Plasma_Transformer_V2.0!$B$5:$L$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -127,13 +127,7 @@
     <t>NVMFS5C450NL</t>
   </si>
   <si>
-    <t>NTD5802N</t>
-  </si>
-  <si>
     <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>Power MOSFET 40V, Single N-Channel, 101A DPAK</t>
   </si>
   <si>
     <t>Q1,Q2</t>
@@ -262,19 +256,23 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>P007567011</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>053398-0571</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634282</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>NVMFS5C450NL</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>P007567011</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>053398-0571</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005634282</t>
+    <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1627,7 +1625,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1649,12 +1647,12 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1700,28 +1698,28 @@
         <v>10</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="Q5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="27" t="s">
+      <c r="R5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="S5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="T5" s="35" t="s">
         <v>74</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1772,14 +1770,14 @@
         <v>40</v>
       </c>
       <c r="P6" s="30">
-        <f>H6*$P$4</f>
+        <f t="shared" ref="P6:P12" si="0">H6*$P$4</f>
         <v>10</v>
       </c>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
       <c r="S6" s="37"/>
       <c r="T6" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -1823,19 +1821,19 @@
         <v>10</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:N14" si="0">H7*M7</f>
+        <f t="shared" ref="N7:N14" si="1">H7*M7</f>
         <v>20</v>
       </c>
       <c r="O7" s="20"/>
       <c r="P7" s="31">
-        <f>H7*$P$4</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="38"/>
       <c r="T7" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -1877,19 +1875,19 @@
         <v>10</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="31">
-        <f>H8*$P$4</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="38"/>
       <c r="T8" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1900,31 +1898,31 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="H9" s="16">
         <v>2</v>
       </c>
       <c r="I9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="K9" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>35</v>
@@ -1933,14 +1931,14 @@
         <v>1020</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="O9" s="16">
         <v>4</v>
       </c>
       <c r="P9" s="31">
-        <f>H9*$P$4</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q9" s="16">
@@ -1954,7 +1952,7 @@
         <v>20400</v>
       </c>
       <c r="T9" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -1965,47 +1963,47 @@
         <v>5</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="16">
         <v>1</v>
       </c>
       <c r="I10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="K10" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" s="16">
         <v>130</v>
       </c>
       <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="31">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="31">
-        <f>H10*$P$4</f>
         <v>10</v>
       </c>
       <c r="Q10" s="16">
@@ -2019,7 +2017,7 @@
         <v>13000</v>
       </c>
       <c r="T10" s="36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2030,47 +2028,47 @@
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="F11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="16">
         <v>1</v>
       </c>
       <c r="I11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="K11" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M11" s="16">
         <v>160</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="O11" s="20">
         <v>50</v>
       </c>
       <c r="P11" s="20">
-        <f>H11*$P$4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Q11" s="20"/>
@@ -2086,45 +2084,45 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="16">
         <v>1</v>
       </c>
       <c r="I12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="K12" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M12" s="14">
         <v>10000</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="O12" s="20"/>
       <c r="P12" s="20">
-        <f>H12*$P$4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Q12" s="20"/>
@@ -2134,38 +2132,38 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="19">
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="20">
         <v>1</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" s="20">
         <v>0</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O13" s="20"/>
@@ -2177,13 +2175,13 @@
     </row>
     <row r="14" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="22">
         <v>7</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -2193,20 +2191,20 @@
         <v>4</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14" s="17">
         <v>0</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14" s="17">
         <v>0</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="17"/>
@@ -2228,7 +2226,7 @@
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/4_Transformer/1_Schematic/V2.0/Plasma_Gen_Transformer_Part List_V2.0.xlsx
+++ b/4_Transformer/1_Schematic/V2.0/Plasma_Gen_Transformer_Part List_V2.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\20171116_Plasma_Generator\4_Transformer\1_Schematic\V2.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="16155" windowHeight="9180"/>
   </bookViews>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Plasma_Transformer_V2.0!$B$5:$L$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -124,9 +129,6 @@
     <t>0.40mm</t>
   </si>
   <si>
-    <t>NVMFS5C450NL</t>
-  </si>
-  <si>
     <t>ON Semiconductor</t>
   </si>
   <si>
@@ -239,9 +241,6 @@
   </si>
   <si>
     <t>구매금액</t>
-  </si>
-  <si>
-    <t>ICBanQ 3/14</t>
   </si>
   <si>
     <t>Sample</t>
@@ -264,15 +263,27 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>P005634282</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>NVMFS5C450NL</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 Cost</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBanQ</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> P007223445 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD1820G</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,8 +485,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,12 +681,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -680,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -940,7 +952,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -953,7 +967,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -966,18 +982,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1145,7 +1152,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,109 +1168,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="21" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,6 +1320,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1378,7 +1370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1413,7 +1405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1622,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1642,591 +1634,602 @@
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P3" t="s">
-        <v>75</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P4">
+    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" s="27" t="s">
+      <c r="R5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="S5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="T5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>74</v>
+      <c r="U5" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="26">
         <v>2280</v>
       </c>
       <c r="N6" s="3">
         <f>H6*M6</f>
         <v>2280</v>
       </c>
-      <c r="O6" s="28">
-        <v>40</v>
-      </c>
-      <c r="P6" s="30">
-        <f t="shared" ref="P6:P12" si="0">H6*$P$4</f>
+      <c r="O6" s="3">
+        <v>1820</v>
+      </c>
+      <c r="P6" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" ref="Q6:Q12" si="0">H6*$Q$4</f>
         <v>10</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="29" t="s">
-        <v>76</v>
+      <c r="R6" s="19">
+        <v>5</v>
+      </c>
+      <c r="S6" s="19">
+        <v>50</v>
+      </c>
+      <c r="T6" s="26">
+        <f>O6*S6</f>
+        <v>91000</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="10">
         <v>2</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="10">
         <v>10</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ref="N7:N14" si="1">H7*M7</f>
         <v>20</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="31">
+      <c r="O7" s="5"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="33" t="s">
-        <v>77</v>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="22" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="10">
         <v>2</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10">
         <v>10</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="31">
+      <c r="O8" s="5"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="33" t="s">
-        <v>77</v>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="22" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="16">
-        <v>2</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="J9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="16">
-        <v>1020</v>
+      <c r="L9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="32">
+        <v>940</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="1"/>
-        <v>2040</v>
-      </c>
-      <c r="O9" s="16">
-        <v>4</v>
-      </c>
-      <c r="P9" s="31">
+        <v>1880</v>
+      </c>
+      <c r="O9" s="4">
+        <v>800</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="R9" s="10">
         <v>1</v>
       </c>
-      <c r="R9" s="16">
-        <v>20</v>
-      </c>
-      <c r="S9" s="14">
-        <f>M9*R9</f>
-        <v>20400</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>78</v>
+      <c r="S9" s="10">
+        <v>30</v>
+      </c>
+      <c r="T9" s="26">
+        <f>O9*S9</f>
+        <v>24000</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="16">
+      <c r="L10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="10">
         <v>130</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="O10" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="31">
+      <c r="O10" s="5"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q10" s="16">
-        <v>100</v>
-      </c>
-      <c r="R10" s="16">
-        <v>100</v>
-      </c>
-      <c r="S10" s="14">
-        <f>M10*R10</f>
-        <v>13000</v>
-      </c>
-      <c r="T10" s="36" t="s">
-        <v>80</v>
-      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="J11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="16">
+      <c r="L11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="10">
         <v>160</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="O11" s="20">
-        <v>50</v>
-      </c>
-      <c r="P11" s="20">
+      <c r="O11" s="5"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="21"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="15"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16" t="s">
+      <c r="J12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="14">
+      <c r="L12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="8">
         <v>10000</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20">
+      <c r="O12" s="5"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="21"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="19">
-        <v>6</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="20">
-        <v>1</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="20">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="14">
         <v>0</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="21"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="22">
+        <v>45</v>
+      </c>
+      <c r="B14" s="16">
         <v>7</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>4</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17">
-        <v>4</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="J14" s="11">
         <v>0</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="17">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="11">
         <v>0</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="23"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="17"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N15" s="12">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N15" s="7">
         <f>SUM(N6:N14)</f>
-        <v>14650</v>
-      </c>
-      <c r="S15" s="12">
-        <f>SUM(S6:S14)</f>
-        <v>33400</v>
+        <v>14490</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="T15" s="7">
+        <f>SUM(T6:T14)</f>
+        <v>115000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
